--- a/Nilai Praktikan.xlsx
+++ b/Nilai Praktikan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\AsDos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\AsDos\PD2\PD2 SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Mahasiswa</t>
   </si>
@@ -47,12 +47,24 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>MIFTAH MUHAMMAD</t>
+  </si>
+  <si>
+    <t>ARIEF RAMADHAN</t>
+  </si>
+  <si>
+    <t>STEVANUS EVO</t>
+  </si>
+  <si>
+    <t>MUKHYIDDIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -101,7 +105,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,7 +145,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -163,13 +166,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,23 +460,33 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-    </row>
-    <row r="2" spans="1:1" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:1" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:1" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -540,10 +554,18 @@
     <row r="26" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -555,7 +577,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,181 +617,205 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="13" t="str">
         <f>Mahasiswa!A1</f>
-        <v>0</v>
+        <v>MIFTAH MUHAMMAD</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="13" t="str">
         <f>Mahasiswa!A2</f>
-        <v>0</v>
+        <v>ARIEF RAMADHAN</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="13" t="str">
         <f>Mahasiswa!A3</f>
-        <v>0</v>
+        <v>STEVANUS EVO</v>
+      </c>
+      <c r="B4" s="1">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="13" t="str">
         <f>Mahasiswa!A4</f>
-        <v>0</v>
+        <v>MUKHYIDDIN</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <f>Mahasiswa!A5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <f>Mahasiswa!A6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <f>Mahasiswa!A7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <f>Mahasiswa!A8</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <f>Mahasiswa!A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <f>Mahasiswa!A10</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <f>Mahasiswa!A11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="13">
         <f>Mahasiswa!A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="13">
         <f>Mahasiswa!A13</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="13">
         <f>Mahasiswa!A14</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="13">
         <f>Mahasiswa!A15</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <f>Mahasiswa!A16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <f>Mahasiswa!A17</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="13">
         <f>Mahasiswa!A18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="13">
         <f>Mahasiswa!A19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="13">
         <f>Mahasiswa!A20</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="13">
         <f>Mahasiswa!A21</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="13">
         <f>Mahasiswa!A22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="13">
         <f>Mahasiswa!A23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="25" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <f>Mahasiswa!A24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+    <row r="26" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <f>Mahasiswa!A25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="27" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <f>Mahasiswa!A26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <f>Mahasiswa!A27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <f>Mahasiswa!A28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="30" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <f>Mahasiswa!A29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <f>Mahasiswa!A30</f>
         <v>0</v>
       </c>
@@ -785,7 +831,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,181 +871,205 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="13" t="str">
         <f>Mahasiswa!A1</f>
-        <v>0</v>
+        <v>MIFTAH MUHAMMAD</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="13" t="str">
         <f>Mahasiswa!A2</f>
-        <v>0</v>
+        <v>ARIEF RAMADHAN</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="13" t="str">
         <f>Mahasiswa!A3</f>
-        <v>0</v>
+        <v>STEVANUS EVO</v>
+      </c>
+      <c r="B4" s="1">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="13" t="str">
         <f>Mahasiswa!A4</f>
-        <v>0</v>
+        <v>MUKHYIDDIN</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <f>Mahasiswa!A5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <f>Mahasiswa!A6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <f>Mahasiswa!A7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <f>Mahasiswa!A8</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <f>Mahasiswa!A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <f>Mahasiswa!A10</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <f>Mahasiswa!A11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="13">
         <f>Mahasiswa!A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="13">
         <f>Mahasiswa!A13</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="13">
         <f>Mahasiswa!A14</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="13">
         <f>Mahasiswa!A15</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <f>Mahasiswa!A16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <f>Mahasiswa!A17</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="13">
         <f>Mahasiswa!A18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="13">
         <f>Mahasiswa!A19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="13">
         <f>Mahasiswa!A20</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="13">
         <f>Mahasiswa!A21</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="13">
         <f>Mahasiswa!A22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="13">
         <f>Mahasiswa!A23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="25" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <f>Mahasiswa!A24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+    <row r="26" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <f>Mahasiswa!A25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="27" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <f>Mahasiswa!A26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <f>Mahasiswa!A27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <f>Mahasiswa!A28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="30" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <f>Mahasiswa!A29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <f>Mahasiswa!A30</f>
         <v>0</v>
       </c>
@@ -1015,7 +1085,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,181 +1125,205 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="13" t="str">
         <f>Mahasiswa!A1</f>
-        <v>0</v>
+        <v>MIFTAH MUHAMMAD</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="13" t="str">
         <f>Mahasiswa!A2</f>
-        <v>0</v>
+        <v>ARIEF RAMADHAN</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="13" t="str">
         <f>Mahasiswa!A3</f>
-        <v>0</v>
+        <v>STEVANUS EVO</v>
+      </c>
+      <c r="B4" s="1">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="13" t="str">
         <f>Mahasiswa!A4</f>
-        <v>0</v>
+        <v>MUKHYIDDIN</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <f>Mahasiswa!A5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <f>Mahasiswa!A6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <f>Mahasiswa!A7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <f>Mahasiswa!A8</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <f>Mahasiswa!A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <f>Mahasiswa!A10</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <f>Mahasiswa!A11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="13">
         <f>Mahasiswa!A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="13">
         <f>Mahasiswa!A13</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="13">
         <f>Mahasiswa!A14</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="13">
         <f>Mahasiswa!A15</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <f>Mahasiswa!A16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <f>Mahasiswa!A17</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="13">
         <f>Mahasiswa!A18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="13">
         <f>Mahasiswa!A19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="13">
         <f>Mahasiswa!A20</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="13">
         <f>Mahasiswa!A21</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="13">
         <f>Mahasiswa!A22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="13">
         <f>Mahasiswa!A23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="25" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <f>Mahasiswa!A24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+    <row r="26" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <f>Mahasiswa!A25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="27" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <f>Mahasiswa!A26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <f>Mahasiswa!A27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <f>Mahasiswa!A28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="30" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <f>Mahasiswa!A29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:1" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <f>Mahasiswa!A30</f>
         <v>0</v>
       </c>
@@ -1245,7 +1339,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,17 +1392,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="13" t="str">
         <f>Mahasiswa!A1</f>
-        <v>0</v>
+        <v>MIFTAH MUHAMMAD</v>
       </c>
       <c r="B2" s="1">
         <f>0.2*Aktifitas!B2+0.4*'Penguasaan Materi'!B2+0.4*Tugas!B2</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <f>0.2*Aktifitas!C2+0.4*'Penguasaan Materi'!C2+0.4*Tugas!C2</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
         <f>0.2*Aktifitas!D2+0.4*'Penguasaan Materi'!D2+0.4*Tugas!D2</f>
@@ -1336,11 +1430,11 @@
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:I2)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
         <f>0.5*J2+0.2*K2+0.3*L2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(M2&gt;=80,"A",IF(M2&gt;=75,"B+",IF(M2&gt;=70,"B",IF(M2&gt;=65,"C+",IF(M2&gt;=56,"C",IF(M2&gt;=45,"D","E"))))))</f>
@@ -1348,17 +1442,17 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="13" t="str">
         <f>Mahasiswa!A2</f>
-        <v>0</v>
+        <v>ARIEF RAMADHAN</v>
       </c>
       <c r="B3" s="1">
         <f>0.2*Aktifitas!B3+0.4*'Penguasaan Materi'!B3+0.4*Tugas!B3</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <f>0.2*Aktifitas!C3+0.4*'Penguasaan Materi'!C3+0.4*Tugas!C3</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
         <f>0.2*Aktifitas!D3+0.4*'Penguasaan Materi'!D3+0.4*Tugas!D3</f>
@@ -1386,11 +1480,11 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J31" si="0">AVERAGE(B3:I3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M31" si="1">0.5*J3+0.2*K3+0.3*L3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:N31" si="2">IF(M3&gt;=80,"A",IF(M3&gt;=75,"B+",IF(M3&gt;=70,"B",IF(M3&gt;=65,"C+",IF(M3&gt;=56,"C",IF(M3&gt;=45,"D","E"))))))</f>
@@ -1398,17 +1492,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="13" t="str">
         <f>Mahasiswa!A3</f>
-        <v>0</v>
+        <v>STEVANUS EVO</v>
       </c>
       <c r="B4" s="1">
         <f>0.2*Aktifitas!B4+0.4*'Penguasaan Materi'!B4+0.4*Tugas!B4</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <f>0.2*Aktifitas!C4+0.4*'Penguasaan Materi'!C4+0.4*Tugas!C4</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <f>0.2*Aktifitas!D4+0.4*'Penguasaan Materi'!D4+0.4*Tugas!D4</f>
@@ -1436,11 +1530,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1448,17 +1542,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="13" t="str">
         <f>Mahasiswa!A4</f>
-        <v>0</v>
+        <v>MUKHYIDDIN</v>
       </c>
       <c r="B5" s="1">
         <f>0.2*Aktifitas!B5+0.4*'Penguasaan Materi'!B5+0.4*Tugas!B5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1">
         <f>0.2*Aktifitas!C5+0.4*'Penguasaan Materi'!C5+0.4*Tugas!C5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <f>0.2*Aktifitas!D5+0.4*'Penguasaan Materi'!D5+0.4*Tugas!D5</f>
@@ -1486,11 +1580,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1498,7 +1592,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <f>Mahasiswa!A5</f>
         <v>0</v>
       </c>
@@ -1548,7 +1642,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <f>Mahasiswa!A6</f>
         <v>0</v>
       </c>
@@ -1598,7 +1692,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <f>Mahasiswa!A7</f>
         <v>0</v>
       </c>
@@ -1648,7 +1742,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <f>Mahasiswa!A8</f>
         <v>0</v>
       </c>
@@ -1698,7 +1792,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <f>Mahasiswa!A9</f>
         <v>0</v>
       </c>
@@ -1748,7 +1842,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <f>Mahasiswa!A10</f>
         <v>0</v>
       </c>
@@ -1798,7 +1892,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <f>Mahasiswa!A11</f>
         <v>0</v>
       </c>
@@ -1848,7 +1942,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="13">
         <f>Mahasiswa!A12</f>
         <v>0</v>
       </c>
@@ -1898,7 +1992,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="13">
         <f>Mahasiswa!A13</f>
         <v>0</v>
       </c>
@@ -1948,7 +2042,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="13">
         <f>Mahasiswa!A14</f>
         <v>0</v>
       </c>
@@ -1998,7 +2092,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="13">
         <f>Mahasiswa!A15</f>
         <v>0</v>
       </c>
@@ -2048,7 +2142,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <f>Mahasiswa!A16</f>
         <v>0</v>
       </c>
@@ -2098,7 +2192,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <f>Mahasiswa!A17</f>
         <v>0</v>
       </c>
@@ -2148,7 +2242,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="13">
         <f>Mahasiswa!A18</f>
         <v>0</v>
       </c>
@@ -2198,7 +2292,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="13">
         <f>Mahasiswa!A19</f>
         <v>0</v>
       </c>
@@ -2248,7 +2342,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="13">
         <f>Mahasiswa!A20</f>
         <v>0</v>
       </c>
@@ -2298,7 +2392,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="13">
         <f>Mahasiswa!A21</f>
         <v>0</v>
       </c>
@@ -2348,7 +2442,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="13">
         <f>Mahasiswa!A22</f>
         <v>0</v>
       </c>
@@ -2398,7 +2492,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="13">
         <f>Mahasiswa!A23</f>
         <v>0</v>
       </c>
@@ -2447,8 +2541,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <f>Mahasiswa!A24</f>
         <v>0</v>
       </c>
@@ -2497,8 +2591,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+    <row r="26" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <f>Mahasiswa!A25</f>
         <v>0</v>
       </c>
@@ -2547,8 +2641,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="27" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <f>Mahasiswa!A26</f>
         <v>0</v>
       </c>
@@ -2597,8 +2691,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <f>Mahasiswa!A27</f>
         <v>0</v>
       </c>
@@ -2647,8 +2741,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <f>Mahasiswa!A28</f>
         <v>0</v>
       </c>
@@ -2697,8 +2791,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <f>Mahasiswa!A29</f>
         <v>0</v>
       </c>
@@ -2747,8 +2841,8 @@
         <v>E</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <f>Mahasiswa!A30</f>
         <v>0</v>
       </c>

--- a/Nilai Praktikan.xlsx
+++ b/Nilai Praktikan.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +627,12 @@
       <c r="C2" s="1">
         <v>80</v>
       </c>
+      <c r="D2" s="1">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
@@ -639,6 +645,12 @@
       <c r="C3" s="1">
         <v>80</v>
       </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
@@ -651,6 +663,12 @@
       <c r="C4" s="1">
         <v>70</v>
       </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -661,6 +679,12 @@
         <v>80</v>
       </c>
       <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
         <v>80</v>
       </c>
     </row>
@@ -831,7 +855,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +905,12 @@
       <c r="C2" s="1">
         <v>80</v>
       </c>
+      <c r="D2" s="1">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
@@ -893,6 +923,12 @@
       <c r="C3" s="1">
         <v>80</v>
       </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
@@ -905,6 +941,12 @@
       <c r="C4" s="1">
         <v>70</v>
       </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -915,6 +957,12 @@
         <v>80</v>
       </c>
       <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
         <v>80</v>
       </c>
     </row>
@@ -1085,7 +1133,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,10 +1178,16 @@
         <v>MIFTAH MUHAMMAD</v>
       </c>
       <c r="B2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,10 +1196,16 @@
         <v>ARIEF RAMADHAN</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,6 +1219,12 @@
       <c r="C4" s="1">
         <v>70</v>
       </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -1169,6 +1235,12 @@
         <v>80</v>
       </c>
       <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
         <v>80</v>
       </c>
     </row>
@@ -1398,19 +1470,19 @@
       </c>
       <c r="B2" s="1">
         <f>0.2*Aktifitas!B2+0.4*'Penguasaan Materi'!B2+0.4*Tugas!B2</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <f>0.2*Aktifitas!C2+0.4*'Penguasaan Materi'!C2+0.4*Tugas!C2</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1">
         <f>0.2*Aktifitas!D2+0.4*'Penguasaan Materi'!D2+0.4*Tugas!D2</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <f>0.2*Aktifitas!E2+0.4*'Penguasaan Materi'!E2+0.4*Tugas!E2</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1">
         <f>0.2*Aktifitas!F2+0.4*'Penguasaan Materi'!F2+0.4*Tugas!F2</f>
@@ -1430,11 +1502,11 @@
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:I2)</f>
-        <v>20</v>
+        <v>37.25</v>
       </c>
       <c r="M2" s="1">
         <f>0.5*J2+0.2*K2+0.3*L2</f>
-        <v>10</v>
+        <v>18.625</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(M2&gt;=80,"A",IF(M2&gt;=75,"B+",IF(M2&gt;=70,"B",IF(M2&gt;=65,"C+",IF(M2&gt;=56,"C",IF(M2&gt;=45,"D","E"))))))</f>
@@ -1448,19 +1520,19 @@
       </c>
       <c r="B3" s="1">
         <f>0.2*Aktifitas!B3+0.4*'Penguasaan Materi'!B3+0.4*Tugas!B3</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1">
         <f>0.2*Aktifitas!C3+0.4*'Penguasaan Materi'!C3+0.4*Tugas!C3</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1">
         <f>0.2*Aktifitas!D3+0.4*'Penguasaan Materi'!D3+0.4*Tugas!D3</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <f>0.2*Aktifitas!E3+0.4*'Penguasaan Materi'!E3+0.4*Tugas!E3</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1">
         <f>0.2*Aktifitas!F3+0.4*'Penguasaan Materi'!F3+0.4*Tugas!F3</f>
@@ -1480,11 +1552,11 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J31" si="0">AVERAGE(B3:I3)</f>
-        <v>20</v>
+        <v>37.25</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M31" si="1">0.5*J3+0.2*K3+0.3*L3</f>
-        <v>10</v>
+        <v>18.625</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:N31" si="2">IF(M3&gt;=80,"A",IF(M3&gt;=75,"B+",IF(M3&gt;=70,"B",IF(M3&gt;=65,"C+",IF(M3&gt;=56,"C",IF(M3&gt;=45,"D","E"))))))</f>
@@ -1506,11 +1578,11 @@
       </c>
       <c r="D4" s="1">
         <f>0.2*Aktifitas!D4+0.4*'Penguasaan Materi'!D4+0.4*Tugas!D4</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1">
         <f>0.2*Aktifitas!E4+0.4*'Penguasaan Materi'!E4+0.4*Tugas!E4</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
         <f>0.2*Aktifitas!F4+0.4*'Penguasaan Materi'!F4+0.4*Tugas!F4</f>
@@ -1530,11 +1602,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>35.75</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>8.75</v>
+        <v>17.875</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1556,11 +1628,11 @@
       </c>
       <c r="D5" s="1">
         <f>0.2*Aktifitas!D5+0.4*'Penguasaan Materi'!D5+0.4*Tugas!D5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
         <f>0.2*Aktifitas!E5+0.4*'Penguasaan Materi'!E5+0.4*Tugas!E5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
         <f>0.2*Aktifitas!F5+0.4*'Penguasaan Materi'!F5+0.4*Tugas!F5</f>
@@ -1580,11 +1652,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" si="2"/>

--- a/Nilai Praktikan.xlsx
+++ b/Nilai Praktikan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\AsDos\PD2\PD2 SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\AsDos\PD2\PD2 SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE72B588-05BF-49B2-BFC4-8FC5CF4AD9B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="4755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="4755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mahasiswa" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Tugas" sheetId="5" r:id="rId4"/>
     <sheet name="Hasil" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -573,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +634,18 @@
       <c r="E2" s="1">
         <v>80</v>
       </c>
+      <c r="F2" s="1">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
@@ -651,6 +664,18 @@
       <c r="E3" s="1">
         <v>80</v>
       </c>
+      <c r="F3" s="1">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1">
+        <v>70</v>
+      </c>
+      <c r="I3" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
@@ -669,6 +694,18 @@
       <c r="E4" s="1">
         <v>80</v>
       </c>
+      <c r="F4" s="1">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -685,6 +722,18 @@
         <v>80</v>
       </c>
       <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1">
         <v>80</v>
       </c>
     </row>
@@ -851,11 +900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,6 +960,18 @@
       <c r="E2" s="1">
         <v>80</v>
       </c>
+      <c r="F2" s="1">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
@@ -929,6 +990,18 @@
       <c r="E3" s="1">
         <v>80</v>
       </c>
+      <c r="F3" s="1">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
@@ -947,6 +1020,18 @@
       <c r="E4" s="1">
         <v>80</v>
       </c>
+      <c r="F4" s="1">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -963,6 +1048,18 @@
         <v>80</v>
       </c>
       <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1">
         <v>80</v>
       </c>
     </row>
@@ -1129,11 +1226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1286,18 @@
       <c r="E2" s="1">
         <v>70</v>
       </c>
+      <c r="F2" s="1">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
@@ -1207,6 +1316,18 @@
       <c r="E3" s="1">
         <v>70</v>
       </c>
+      <c r="F3" s="1">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
@@ -1225,6 +1346,18 @@
       <c r="E4" s="1">
         <v>70</v>
       </c>
+      <c r="F4" s="1">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -1241,6 +1374,18 @@
         <v>80</v>
       </c>
       <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1">
         <v>80</v>
       </c>
     </row>
@@ -1407,11 +1552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,31 +1631,37 @@
       </c>
       <c r="F2" s="1">
         <f>0.2*Aktifitas!F2+0.4*'Penguasaan Materi'!F2+0.4*Tugas!F2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1">
         <f>0.2*Aktifitas!G2+0.4*'Penguasaan Materi'!G2+0.4*Tugas!G2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1">
         <f>0.2*Aktifitas!H2+0.4*'Penguasaan Materi'!H2+0.4*Tugas!H2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1">
         <f>0.2*Aktifitas!I2+0.4*'Penguasaan Materi'!I2+0.4*Tugas!I2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:I2)</f>
-        <v>37.25</v>
+        <v>74.75</v>
+      </c>
+      <c r="K2" s="1">
+        <v>80</v>
+      </c>
+      <c r="L2" s="1">
+        <v>80</v>
       </c>
       <c r="M2" s="1">
         <f>0.5*J2+0.2*K2+0.3*L2</f>
-        <v>18.625</v>
+        <v>77.375</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(M2&gt;=80,"A",IF(M2&gt;=75,"B+",IF(M2&gt;=70,"B",IF(M2&gt;=65,"C+",IF(M2&gt;=56,"C",IF(M2&gt;=45,"D","E"))))))</f>
-        <v>E</v>
+        <v>B+</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,31 +1687,37 @@
       </c>
       <c r="F3" s="1">
         <f>0.2*Aktifitas!F3+0.4*'Penguasaan Materi'!F3+0.4*Tugas!F3</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
         <f>0.2*Aktifitas!G3+0.4*'Penguasaan Materi'!G3+0.4*Tugas!G3</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1">
         <f>0.2*Aktifitas!H3+0.4*'Penguasaan Materi'!H3+0.4*Tugas!H3</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1">
         <f>0.2*Aktifitas!I3+0.4*'Penguasaan Materi'!I3+0.4*Tugas!I3</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J31" si="0">AVERAGE(B3:I3)</f>
-        <v>37.25</v>
+        <v>74.75</v>
+      </c>
+      <c r="K3" s="1">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1">
+        <v>50</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M31" si="1">0.5*J3+0.2*K3+0.3*L3</f>
-        <v>18.625</v>
+        <v>68.375</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:N31" si="2">IF(M3&gt;=80,"A",IF(M3&gt;=75,"B+",IF(M3&gt;=70,"B",IF(M3&gt;=65,"C+",IF(M3&gt;=56,"C",IF(M3&gt;=45,"D","E"))))))</f>
-        <v>E</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,31 +1743,37 @@
       </c>
       <c r="F4" s="1">
         <f>0.2*Aktifitas!F4+0.4*'Penguasaan Materi'!F4+0.4*Tugas!F4</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1">
         <f>0.2*Aktifitas!G4+0.4*'Penguasaan Materi'!G4+0.4*Tugas!G4</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1">
         <f>0.2*Aktifitas!H4+0.4*'Penguasaan Materi'!H4+0.4*Tugas!H4</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1">
         <f>0.2*Aktifitas!I4+0.4*'Penguasaan Materi'!I4+0.4*Tugas!I4</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>35.75</v>
+        <v>69.25</v>
+      </c>
+      <c r="K4" s="1">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1">
+        <v>50</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>17.875</v>
+        <v>65.625</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,31 +1799,37 @@
       </c>
       <c r="F5" s="1">
         <f>0.2*Aktifitas!F5+0.4*'Penguasaan Materi'!F5+0.4*Tugas!F5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1">
         <f>0.2*Aktifitas!G5+0.4*'Penguasaan Materi'!G5+0.4*Tugas!G5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1">
         <f>0.2*Aktifitas!H5+0.4*'Penguasaan Materi'!H5+0.4*Tugas!H5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
         <f>0.2*Aktifitas!I5+0.4*'Penguasaan Materi'!I5+0.4*Tugas!I5</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1">
+        <v>50</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
